--- a/Data/Template/보안서약대상자.xlsx
+++ b/Data/Template/보안서약대상자.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\AdobePDF서비스데모\Data\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyungsoo.kim\Documents\UiPath\adobe-marketing-demo\Data\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF48C69D-703C-4AB3-9778-8EB4E803CE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15426B8-7286-4F3B-98A8-5BDB67ED41C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10853" yWindow="5407" windowWidth="21600" windowHeight="12173" xr2:uid="{A5FC86E6-326D-4924-A4F7-3D01EC273D0D}"/>
+    <workbookView xWindow="1128" yWindow="768" windowWidth="18252" windowHeight="8700" xr2:uid="{A5FC86E6-326D-4924-A4F7-3D01EC273D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="대상자" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>EmployeeNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,42 +66,6 @@
   </si>
   <si>
     <t>재발송일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차정원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccha@adobe.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UiPath, Inc.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adobe, Inc.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김형수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hyungsoo.kim@uipath.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이패스코리아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charles Kim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>javaos@naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,20 +453,20 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E8" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.4375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.8125" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -531,59 +495,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1670</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>14792</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>1470</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{986E33CF-249F-44D9-A0C1-DD8F9468EE2E}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{8EE1FC85-CE7F-45C5-A5C4-BABC35801F09}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{136CA604-5545-4843-B4F9-177F16E429C3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>